--- a/state_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
+++ b/state_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U212"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,13 +570,13 @@
         <v>1.15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64653798086597</v>
+        <v>1.62831703965469</v>
       </c>
       <c r="H2" t="n">
-        <v>8.192420244394491</v>
+        <v>7.86892661386078</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4273</v>
+        <v>5.16223</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>2.218</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3725</v>
+        <v>3.31065</v>
       </c>
       <c r="O2" t="n">
         <v>1786783</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.00847</v>
+        <v>0.00826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0135478349226938</v>
+        <v>0.0135327382130165</v>
       </c>
       <c r="H9" t="n">
         <v>0.14</v>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.00847</v>
+        <v>0.00826</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0135478349226938</v>
+        <v>0.0135327382130165</v>
       </c>
       <c r="H10" t="n">
         <v>0.14</v>
@@ -1315,7 +1315,7 @@
         <v>0.1815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.232207306516304</v>
+        <v>0.232197289109061</v>
       </c>
       <c r="H11" t="n">
         <v>0.93</v>
@@ -1326,7 +1326,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>0.01479</v>
+        <v>0.01457</v>
       </c>
       <c r="M11" t="n">
         <v>0.47076</v>
@@ -1396,7 +1396,7 @@
         <v>0.1815</v>
       </c>
       <c r="G12" t="n">
-        <v>0.232207306516304</v>
+        <v>0.232197289109061</v>
       </c>
       <c r="H12" t="n">
         <v>0.93</v>
@@ -1407,7 +1407,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>0.01479</v>
+        <v>0.01457</v>
       </c>
       <c r="M12" t="n">
         <v>0.47076</v>
@@ -1473,7 +1473,7 @@
         <v>0.188</v>
       </c>
       <c r="G13" t="n">
-        <v>0.237088888888889</v>
+        <v>0.237115555555556</v>
       </c>
       <c r="H13" t="n">
         <v>0.957</v>
@@ -1487,10 +1487,10 @@
         <v>0.066</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4837</v>
+        <v>0.48377</v>
       </c>
       <c r="N13" t="n">
-        <v>0.551</v>
+        <v>0.55103</v>
       </c>
       <c r="O13" t="n">
         <v>1786783</v>
@@ -1550,7 +1550,7 @@
         <v>0.188</v>
       </c>
       <c r="G14" t="n">
-        <v>0.237088888888889</v>
+        <v>0.237115555555556</v>
       </c>
       <c r="H14" t="n">
         <v>0.957</v>
@@ -1564,10 +1564,10 @@
         <v>0.066</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4837</v>
+        <v>0.48377</v>
       </c>
       <c r="N14" t="n">
-        <v>0.551</v>
+        <v>0.55103</v>
       </c>
       <c r="O14" t="n">
         <v>1786783</v>
@@ -1939,13 +1939,13 @@
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.63590670614576</v>
+        <v>1.62513144028381</v>
       </c>
       <c r="H19" t="n">
-        <v>4.43217495197612</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>4.09</v>
+        <v>3.99471</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
         <v>2.718</v>
       </c>
       <c r="N19" t="n">
-        <v>3.376</v>
+        <v>3.37389</v>
       </c>
       <c r="O19" t="n">
         <v>1786783</v>
@@ -2684,7 +2684,7 @@
         <v>0.16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.195508067435265</v>
+        <v>0.195455609065027</v>
       </c>
       <c r="H28" t="n">
         <v>0.93</v>
@@ -2695,7 +2695,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>0.00829</v>
+        <v>0.008070000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>0.43935</v>
@@ -2765,7 +2765,7 @@
         <v>0.16</v>
       </c>
       <c r="G29" t="n">
-        <v>0.195508067435265</v>
+        <v>0.195455609065027</v>
       </c>
       <c r="H29" t="n">
         <v>0.93</v>
@@ -2776,7 +2776,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.00829</v>
+        <v>0.008070000000000001</v>
       </c>
       <c r="M29" t="n">
         <v>0.43935</v>
@@ -2842,7 +2842,7 @@
         <v>0.174</v>
       </c>
       <c r="G30" t="n">
-        <v>0.214955555555556</v>
+        <v>0.214968888888889</v>
       </c>
       <c r="H30" t="n">
         <v>0.957</v>
@@ -2919,7 +2919,7 @@
         <v>0.174</v>
       </c>
       <c r="G31" t="n">
-        <v>0.214955555555556</v>
+        <v>0.214968888888889</v>
       </c>
       <c r="H31" t="n">
         <v>0.957</v>
@@ -3308,13 +3308,13 @@
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>2.11085878425839</v>
+        <v>2.00780755027548</v>
       </c>
       <c r="H36" t="n">
-        <v>10.3123722618463</v>
+        <v>6.60357164244318</v>
       </c>
       <c r="I36" t="n">
-        <v>5.46857</v>
+        <v>5.43662</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3325,7 +3325,7 @@
         <v>3.302</v>
       </c>
       <c r="N36" t="n">
-        <v>4.92166</v>
+        <v>4.67336</v>
       </c>
       <c r="O36" t="n">
         <v>1786783</v>
@@ -4053,7 +4053,7 @@
         <v>0.1713</v>
       </c>
       <c r="G45" t="n">
-        <v>0.195911632185736</v>
+        <v>0.195817586103968</v>
       </c>
       <c r="H45" t="n">
         <v>0.93</v>
@@ -4064,7 +4064,7 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.00623</v>
+        <v>0.0062</v>
       </c>
       <c r="M45" t="n">
         <v>0.41861</v>
@@ -4134,7 +4134,7 @@
         <v>0.1713</v>
       </c>
       <c r="G46" t="n">
-        <v>0.195911632185736</v>
+        <v>0.195817586103968</v>
       </c>
       <c r="H46" t="n">
         <v>0.93</v>
@@ -4145,7 +4145,7 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.00623</v>
+        <v>0.0062</v>
       </c>
       <c r="M46" t="n">
         <v>0.41861</v>
@@ -4211,13 +4211,13 @@
         <v>0.188</v>
       </c>
       <c r="G47" t="n">
-        <v>0.214350877192982</v>
+        <v>0.214347368421053</v>
       </c>
       <c r="H47" t="n">
         <v>0.957</v>
       </c>
       <c r="I47" t="n">
-        <v>0.7145</v>
+        <v>0.7143699999999999</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -4225,7 +4225,7 @@
         <v>0.025</v>
       </c>
       <c r="M47" t="n">
-        <v>0.42797</v>
+        <v>0.42807</v>
       </c>
       <c r="N47" t="n">
         <v>0.49758</v>
@@ -4288,13 +4288,13 @@
         <v>0.188</v>
       </c>
       <c r="G48" t="n">
-        <v>0.214350877192982</v>
+        <v>0.214347368421053</v>
       </c>
       <c r="H48" t="n">
         <v>0.957</v>
       </c>
       <c r="I48" t="n">
-        <v>0.7145</v>
+        <v>0.7143699999999999</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -4302,7 +4302,7 @@
         <v>0.025</v>
       </c>
       <c r="M48" t="n">
-        <v>0.42797</v>
+        <v>0.42807</v>
       </c>
       <c r="N48" t="n">
         <v>0.49758</v>
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>2.5847363352788</v>
+        <v>2.48168510129589</v>
       </c>
       <c r="H53" t="n">
-        <v>10.3123722618463</v>
+        <v>7.4</v>
       </c>
       <c r="I53" t="n">
-        <v>7.115</v>
+        <v>6.62839</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4691,10 +4691,10 @@
         <v>3.5</v>
       </c>
       <c r="M53" t="n">
-        <v>4.23947</v>
+        <v>4.117</v>
       </c>
       <c r="N53" t="n">
-        <v>6.19542</v>
+        <v>5.82483</v>
       </c>
       <c r="O53" t="n">
         <v>1786783</v>
@@ -5260,7 +5260,7 @@
         <v>0.00558</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0103470097996649</v>
+        <v>0.0103408662218375</v>
       </c>
       <c r="H60" t="n">
         <v>0.14</v>
@@ -5341,7 +5341,7 @@
         <v>0.00558</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0103470097996649</v>
+        <v>0.0103408662218375</v>
       </c>
       <c r="H61" t="n">
         <v>0.14</v>
@@ -5422,7 +5422,7 @@
         <v>0.17215</v>
       </c>
       <c r="G62" t="n">
-        <v>0.20284809397131</v>
+        <v>0.202812194863325</v>
       </c>
       <c r="H62" t="n">
         <v>0.93</v>
@@ -5433,7 +5433,7 @@
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.00349</v>
+        <v>0.00405</v>
       </c>
       <c r="M62" t="n">
         <v>0.43187</v>
@@ -5503,7 +5503,7 @@
         <v>0.17215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.20284809397131</v>
+        <v>0.202812194863325</v>
       </c>
       <c r="H63" t="n">
         <v>0.93</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00349</v>
+        <v>0.00405</v>
       </c>
       <c r="M63" t="n">
         <v>0.43187</v>
@@ -5577,27 +5577,27 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.19</v>
+        <v>0.1898</v>
       </c>
       <c r="G64" t="n">
-        <v>0.219874051589224</v>
+        <v>0.219881682575624</v>
       </c>
       <c r="H64" t="n">
         <v>0.957</v>
       </c>
       <c r="I64" t="n">
-        <v>0.7355</v>
+        <v>0.7354000000000001</v>
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.0205</v>
+        <v>0.02065</v>
       </c>
       <c r="M64" t="n">
-        <v>0.4461</v>
+        <v>0.44617</v>
       </c>
       <c r="N64" t="n">
-        <v>0.6562</v>
+        <v>0.65623</v>
       </c>
       <c r="O64" t="n">
         <v>1786783</v>
@@ -5654,27 +5654,27 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.19</v>
+        <v>0.1898</v>
       </c>
       <c r="G65" t="n">
-        <v>0.219874051589224</v>
+        <v>0.219881682575624</v>
       </c>
       <c r="H65" t="n">
         <v>0.957</v>
       </c>
       <c r="I65" t="n">
-        <v>0.7355</v>
+        <v>0.7354000000000001</v>
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
-        <v>0.0205</v>
+        <v>0.02065</v>
       </c>
       <c r="M65" t="n">
-        <v>0.4461</v>
+        <v>0.44617</v>
       </c>
       <c r="N65" t="n">
-        <v>0.6562</v>
+        <v>0.65623</v>
       </c>
       <c r="O65" t="n">
         <v>1786783</v>
@@ -6123,13 +6123,13 @@
         <v>1.9</v>
       </c>
       <c r="G71" t="n">
-        <v>2.61224160857322</v>
+        <v>2.51125139926997</v>
       </c>
       <c r="H71" t="n">
-        <v>10.3123722618463</v>
+        <v>7.4</v>
       </c>
       <c r="I71" t="n">
-        <v>7.1</v>
+        <v>6.60357</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6137,10 +6137,10 @@
         <v>3.2</v>
       </c>
       <c r="M71" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="N71" t="n">
-        <v>6.08571</v>
+        <v>5.76623</v>
       </c>
       <c r="O71" t="n">
         <v>1786783</v>
@@ -6780,10 +6780,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.00316</v>
+        <v>0.00309</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0083792331053334</v>
+        <v>0.008360912678839099</v>
       </c>
       <c r="H79" t="n">
         <v>0.14</v>
@@ -6794,7 +6794,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00227</v>
+        <v>0.00219</v>
       </c>
       <c r="M79" t="n">
         <v>0.01079</v>
@@ -6861,10 +6861,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.00316</v>
+        <v>0.00309</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0083792331053334</v>
+        <v>0.008360912678839099</v>
       </c>
       <c r="H80" t="n">
         <v>0.14</v>
@@ -6875,7 +6875,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.00227</v>
+        <v>0.00219</v>
       </c>
       <c r="M80" t="n">
         <v>0.01079</v>
@@ -6945,7 +6945,7 @@
         <v>0.16565</v>
       </c>
       <c r="G81" t="n">
-        <v>0.189326995348363</v>
+        <v>0.189328062371077</v>
       </c>
       <c r="H81" t="n">
         <v>0.93</v>
@@ -6956,7 +6956,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00411</v>
+        <v>0.00445</v>
       </c>
       <c r="M81" t="n">
         <v>0.36216</v>
@@ -7026,7 +7026,7 @@
         <v>0.16565</v>
       </c>
       <c r="G82" t="n">
-        <v>0.189326995348363</v>
+        <v>0.189328062371077</v>
       </c>
       <c r="H82" t="n">
         <v>0.93</v>
@@ -7037,7 +7037,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00411</v>
+        <v>0.00445</v>
       </c>
       <c r="M82" t="n">
         <v>0.36216</v>
@@ -7177,24 +7177,24 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.183</v>
+        <v>0.1828</v>
       </c>
       <c r="G84" t="n">
-        <v>0.203810496569503</v>
+        <v>0.203828316387345</v>
       </c>
       <c r="H84" t="n">
         <v>0.957</v>
       </c>
       <c r="I84" t="n">
-        <v>0.664</v>
+        <v>0.66395</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
-        <v>0.01417</v>
+        <v>0.01429</v>
       </c>
       <c r="M84" t="n">
-        <v>0.3679</v>
+        <v>0.36793</v>
       </c>
       <c r="N84" t="n">
         <v>0.5024999999999999</v>
@@ -7254,24 +7254,24 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.183</v>
+        <v>0.1828</v>
       </c>
       <c r="G85" t="n">
-        <v>0.203810496569503</v>
+        <v>0.203828316387345</v>
       </c>
       <c r="H85" t="n">
         <v>0.957</v>
       </c>
       <c r="I85" t="n">
-        <v>0.664</v>
+        <v>0.66395</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.01417</v>
+        <v>0.01429</v>
       </c>
       <c r="M85" t="n">
-        <v>0.3679</v>
+        <v>0.36793</v>
       </c>
       <c r="N85" t="n">
         <v>0.5024999999999999</v>
@@ -7723,13 +7723,13 @@
         <v>1.7</v>
       </c>
       <c r="G91" t="n">
-        <v>2.51531713780181</v>
+        <v>2.41728044493324</v>
       </c>
       <c r="H91" t="n">
-        <v>10.3123722618463</v>
+        <v>7.4</v>
       </c>
       <c r="I91" t="n">
-        <v>7.145</v>
+        <v>6.67804</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7740,7 +7740,7 @@
         <v>4.151</v>
       </c>
       <c r="N91" t="n">
-        <v>6.41485</v>
+        <v>5.94202</v>
       </c>
       <c r="O91" t="n">
         <v>1786783</v>
@@ -8380,10 +8380,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.00316</v>
+        <v>0.00309</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0053233857069541</v>
+        <v>0.0053022605612277</v>
       </c>
       <c r="H99" t="n">
         <v>0.0298558574581301</v>
@@ -8394,7 +8394,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00227</v>
+        <v>0.00219</v>
       </c>
       <c r="M99" t="n">
         <v>0.009379999999999999</v>
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.00316</v>
+        <v>0.00309</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0053233857069541</v>
+        <v>0.0053022605612277</v>
       </c>
       <c r="H100" t="n">
         <v>0.0298558574581301</v>
@@ -8475,7 +8475,7 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00227</v>
+        <v>0.00219</v>
       </c>
       <c r="M100" t="n">
         <v>0.009379999999999999</v>
@@ -8545,7 +8545,7 @@
         <v>0.18855</v>
       </c>
       <c r="G101" t="n">
-        <v>0.206689237980745</v>
+        <v>0.206686229892883</v>
       </c>
       <c r="H101" t="n">
         <v>0.7496</v>
@@ -8556,7 +8556,7 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.00544</v>
+        <v>0.00661</v>
       </c>
       <c r="M101" t="n">
         <v>0.42647</v>
@@ -8626,7 +8626,7 @@
         <v>0.18855</v>
       </c>
       <c r="G102" t="n">
-        <v>0.206689237980745</v>
+        <v>0.206686229892883</v>
       </c>
       <c r="H102" t="n">
         <v>0.7496</v>
@@ -8637,7 +8637,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00544</v>
+        <v>0.00661</v>
       </c>
       <c r="M102" t="n">
         <v>0.42647</v>
@@ -8777,24 +8777,24 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0.201</v>
+        <v>0.2009</v>
       </c>
       <c r="G104" t="n">
-        <v>0.221493829902837</v>
+        <v>0.221504983054012</v>
       </c>
       <c r="H104" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I104" t="n">
-        <v>0.573</v>
+        <v>0.5730499999999999</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
-        <v>0.01417</v>
+        <v>0.01429</v>
       </c>
       <c r="M104" t="n">
-        <v>0.438</v>
+        <v>0.43807</v>
       </c>
       <c r="N104" t="n">
         <v>0.524</v>
@@ -8854,24 +8854,24 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0.201</v>
+        <v>0.2009</v>
       </c>
       <c r="G105" t="n">
-        <v>0.221493829902837</v>
+        <v>0.221504983054012</v>
       </c>
       <c r="H105" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I105" t="n">
-        <v>0.573</v>
+        <v>0.5730499999999999</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
-        <v>0.01417</v>
+        <v>0.01429</v>
       </c>
       <c r="M105" t="n">
-        <v>0.438</v>
+        <v>0.43807</v>
       </c>
       <c r="N105" t="n">
         <v>0.524</v>
@@ -9323,13 +9323,13 @@
         <v>1.58</v>
       </c>
       <c r="G111" t="n">
-        <v>2.22978522290819</v>
+        <v>2.13174853003962</v>
       </c>
       <c r="H111" t="n">
-        <v>10.3123722618463</v>
+        <v>7.4</v>
       </c>
       <c r="I111" t="n">
-        <v>7.145</v>
+        <v>6.67804</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9340,7 +9340,7 @@
         <v>4.1</v>
       </c>
       <c r="N111" t="n">
-        <v>6.41485</v>
+        <v>5.94202</v>
       </c>
       <c r="O111" t="n">
         <v>1786783</v>
@@ -9983,7 +9983,7 @@
         <v>0.00357</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0056179763234118</v>
+        <v>0.0055862945142117</v>
       </c>
       <c r="H119" t="n">
         <v>0.0298558574581301</v>
@@ -9994,7 +9994,7 @@
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
-        <v>0.00238</v>
+        <v>0.00232</v>
       </c>
       <c r="M119" t="n">
         <v>0.009679999999999999</v>
@@ -10064,7 +10064,7 @@
         <v>0.00357</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0056179763234118</v>
+        <v>0.0055862945142117</v>
       </c>
       <c r="H120" t="n">
         <v>0.0298558574581301</v>
@@ -10075,7 +10075,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00238</v>
+        <v>0.00232</v>
       </c>
       <c r="M120" t="n">
         <v>0.009679999999999999</v>
@@ -10145,7 +10145,7 @@
         <v>0.211</v>
       </c>
       <c r="G121" t="n">
-        <v>0.234115904647412</v>
+        <v>0.234146229892883</v>
       </c>
       <c r="H121" t="n">
         <v>0.7496</v>
@@ -10226,7 +10226,7 @@
         <v>0.211</v>
       </c>
       <c r="G122" t="n">
-        <v>0.234115904647412</v>
+        <v>0.234146229892883</v>
       </c>
       <c r="H122" t="n">
         <v>0.7496</v>
@@ -10377,21 +10377,21 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0.247</v>
+        <v>0.2471</v>
       </c>
       <c r="G124" t="n">
-        <v>0.24967716323617</v>
+        <v>0.249684983054012</v>
       </c>
       <c r="H124" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I124" t="n">
-        <v>0.613</v>
+        <v>0.61305</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.0235</v>
+        <v>0.02365</v>
       </c>
       <c r="M124" t="n">
         <v>0.4489</v>
@@ -10454,21 +10454,21 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0.247</v>
+        <v>0.2471</v>
       </c>
       <c r="G125" t="n">
-        <v>0.24967716323617</v>
+        <v>0.249684983054012</v>
       </c>
       <c r="H125" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I125" t="n">
-        <v>0.613</v>
+        <v>0.61305</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
-        <v>0.0235</v>
+        <v>0.02365</v>
       </c>
       <c r="M125" t="n">
         <v>0.4489</v>
@@ -11583,7 +11583,7 @@
         <v>0.00468</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0061899838257971</v>
+        <v>0.0061491172786749</v>
       </c>
       <c r="H139" t="n">
         <v>0.0298558574581301</v>
@@ -11594,7 +11594,7 @@
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
-        <v>0.0027</v>
+        <v>0.0026</v>
       </c>
       <c r="M139" t="n">
         <v>0.01051</v>
@@ -11664,7 +11664,7 @@
         <v>0.00468</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0061899838257971</v>
+        <v>0.0061491172786749</v>
       </c>
       <c r="H140" t="n">
         <v>0.0298558574581301</v>
@@ -11675,7 +11675,7 @@
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
-        <v>0.0027</v>
+        <v>0.0026</v>
       </c>
       <c r="M140" t="n">
         <v>0.01051</v>
@@ -11745,7 +11745,7 @@
         <v>0.25245</v>
       </c>
       <c r="G141" t="n">
-        <v>0.243871833026692</v>
+        <v>0.243977076314569</v>
       </c>
       <c r="H141" t="n">
         <v>0.7496</v>
@@ -11826,7 +11826,7 @@
         <v>0.25245</v>
       </c>
       <c r="G142" t="n">
-        <v>0.243871833026692</v>
+        <v>0.243977076314569</v>
       </c>
       <c r="H142" t="n">
         <v>0.7496</v>
@@ -11980,18 +11980,18 @@
         <v>0.265</v>
       </c>
       <c r="G144" t="n">
-        <v>0.260060496569503</v>
+        <v>0.260081649720678</v>
       </c>
       <c r="H144" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I144" t="n">
-        <v>0.613</v>
+        <v>0.61305</v>
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
-        <v>0.02042</v>
+        <v>0.02061</v>
       </c>
       <c r="M144" t="n">
         <v>0.4586</v>
@@ -12057,18 +12057,18 @@
         <v>0.265</v>
       </c>
       <c r="G145" t="n">
-        <v>0.260060496569503</v>
+        <v>0.260081649720678</v>
       </c>
       <c r="H145" t="n">
-        <v>0.799</v>
+        <v>0.7995</v>
       </c>
       <c r="I145" t="n">
-        <v>0.613</v>
+        <v>0.61305</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
-        <v>0.02042</v>
+        <v>0.02061</v>
       </c>
       <c r="M145" t="n">
         <v>0.4586</v>
@@ -13264,7 +13264,7 @@
         <v>0.00494</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0070720923639851</v>
+        <v>0.0070364068436507</v>
       </c>
       <c r="H160" t="n">
         <v>0.0298558574581301</v>
@@ -13275,7 +13275,7 @@
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
-        <v>0.00349</v>
+        <v>0.00342</v>
       </c>
       <c r="M160" t="n">
         <v>0.01096</v>
@@ -13345,7 +13345,7 @@
         <v>0.00494</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0070720923639851</v>
+        <v>0.0070364068436507</v>
       </c>
       <c r="H161" t="n">
         <v>0.0298558574581301</v>
@@ -13356,7 +13356,7 @@
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
-        <v>0.00349</v>
+        <v>0.00342</v>
       </c>
       <c r="M161" t="n">
         <v>0.01096</v>
@@ -13426,7 +13426,7 @@
         <v>0.259</v>
       </c>
       <c r="G162" t="n">
-        <v>0.250429694883751</v>
+        <v>0.250557791460123</v>
       </c>
       <c r="H162" t="n">
         <v>0.648</v>
@@ -13507,7 +13507,7 @@
         <v>0.259</v>
       </c>
       <c r="G163" t="n">
-        <v>0.250429694883751</v>
+        <v>0.250557791460123</v>
       </c>
       <c r="H163" t="n">
         <v>0.648</v>
@@ -13661,7 +13661,7 @@
         <v>0.285</v>
       </c>
       <c r="G165" t="n">
-        <v>0.268206554217233</v>
+        <v>0.268216915740734</v>
       </c>
       <c r="H165" t="n">
         <v>0.68</v>
@@ -13738,7 +13738,7 @@
         <v>0.285</v>
       </c>
       <c r="G166" t="n">
-        <v>0.268206554217233</v>
+        <v>0.268216915740734</v>
       </c>
       <c r="H166" t="n">
         <v>0.68</v>
@@ -14945,7 +14945,7 @@
         <v>0.00498</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0068456755292362</v>
+        <v>0.0068233242244844</v>
       </c>
       <c r="H181" t="n">
         <v>0.0298558574581301</v>
@@ -14956,7 +14956,7 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
-        <v>0.00466</v>
+        <v>0.00457</v>
       </c>
       <c r="M181" t="n">
         <v>0.0105</v>
@@ -15026,7 +15026,7 @@
         <v>0.00498</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0068456755292362</v>
+        <v>0.0068233242244844</v>
       </c>
       <c r="H182" t="n">
         <v>0.0298558574581301</v>
@@ -15037,7 +15037,7 @@
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
-        <v>0.00466</v>
+        <v>0.00457</v>
       </c>
       <c r="M182" t="n">
         <v>0.0105</v>
@@ -15107,7 +15107,7 @@
         <v>0.259</v>
       </c>
       <c r="G183" t="n">
-        <v>0.249329877763793</v>
+        <v>0.24941835891287</v>
       </c>
       <c r="H183" t="n">
         <v>0.648</v>
@@ -15188,7 +15188,7 @@
         <v>0.259</v>
       </c>
       <c r="G184" t="n">
-        <v>0.249329877763793</v>
+        <v>0.24941835891287</v>
       </c>
       <c r="H184" t="n">
         <v>0.648</v>
@@ -15342,7 +15342,7 @@
         <v>0.29</v>
       </c>
       <c r="G186" t="n">
-        <v>0.265559322033898</v>
+        <v>0.265567796610169</v>
       </c>
       <c r="H186" t="n">
         <v>0.68</v>
@@ -15419,7 +15419,7 @@
         <v>0.29</v>
       </c>
       <c r="G187" t="n">
-        <v>0.265559322033898</v>
+        <v>0.265567796610169</v>
       </c>
       <c r="H187" t="n">
         <v>0.68</v>
@@ -16626,7 +16626,7 @@
         <v>0.00526</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0065085592044678</v>
+        <v>0.0064881202957402</v>
       </c>
       <c r="H202" t="n">
         <v>0.022835415485719</v>
@@ -16637,7 +16637,7 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
-        <v>0.00369</v>
+        <v>0.00354</v>
       </c>
       <c r="M202" t="n">
         <v>0.01053</v>
@@ -16707,7 +16707,7 @@
         <v>0.00526</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0065085592044678</v>
+        <v>0.0064881202957402</v>
       </c>
       <c r="H203" t="n">
         <v>0.022835415485719</v>
@@ -16718,7 +16718,7 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
-        <v>0.00369</v>
+        <v>0.00354</v>
       </c>
       <c r="M203" t="n">
         <v>0.01053</v>
@@ -16788,7 +16788,7 @@
         <v>0.235</v>
       </c>
       <c r="G204" t="n">
-        <v>0.237097549786853</v>
+        <v>0.237190770997488</v>
       </c>
       <c r="H204" t="n">
         <v>0.648</v>
@@ -16799,7 +16799,7 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
-        <v>0.008</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="M204" t="n">
         <v>0.43096</v>
@@ -16869,7 +16869,7 @@
         <v>0.235</v>
       </c>
       <c r="G205" t="n">
-        <v>0.237097549786853</v>
+        <v>0.237190770997488</v>
       </c>
       <c r="H205" t="n">
         <v>0.648</v>
@@ -16880,7 +16880,7 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
-        <v>0.008</v>
+        <v>0.009849999999999999</v>
       </c>
       <c r="M205" t="n">
         <v>0.43096</v>
@@ -17023,7 +17023,7 @@
         <v>0.2525</v>
       </c>
       <c r="G207" t="n">
-        <v>0.252571428571429</v>
+        <v>0.252580357142857</v>
       </c>
       <c r="H207" t="n">
         <v>0.68</v>
@@ -17100,7 +17100,7 @@
         <v>0.2525</v>
       </c>
       <c r="G208" t="n">
-        <v>0.252571428571429</v>
+        <v>0.252580357142857</v>
       </c>
       <c r="H208" t="n">
         <v>0.68</v>
@@ -17459,6 +17459,1687 @@
         </is>
       </c>
     </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.312</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.3912</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="G214" t="n">
+        <v>18.3147222222222</v>
+      </c>
+      <c r="H214" t="n">
+        <v>75</v>
+      </c>
+      <c r="I214" t="n">
+        <v>68</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>10</v>
+      </c>
+      <c r="M214" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="N214" t="n">
+        <v>48.93</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.19877551020408</v>
+      </c>
+      <c r="H215" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I215" t="n">
+        <v>2.0075</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="N215" t="n">
+        <v>1.8664</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.0114642857142857</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.01704</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.0114642857142857</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.01498</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01704</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>460</v>
+      </c>
+      <c r="G218" t="n">
+        <v>740.071428571429</v>
+      </c>
+      <c r="H218" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2093.2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>44.6428571428571</v>
+      </c>
+      <c r="K218" t="n">
+        <v>75</v>
+      </c>
+      <c r="L218" t="n">
+        <v>913</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N218" t="n">
+        <v>1506.88</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>460</v>
+      </c>
+      <c r="G219" t="n">
+        <v>740.071428571429</v>
+      </c>
+      <c r="H219" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I219" t="n">
+        <v>2093.2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>44.6428571428571</v>
+      </c>
+      <c r="K219" t="n">
+        <v>75</v>
+      </c>
+      <c r="L219" t="n">
+        <v>913</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N219" t="n">
+        <v>1506.88</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>460</v>
+      </c>
+      <c r="G220" t="n">
+        <v>740.071428571429</v>
+      </c>
+      <c r="H220" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I220" t="n">
+        <v>2093.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>44.6428571428571</v>
+      </c>
+      <c r="K220" t="n">
+        <v>75</v>
+      </c>
+      <c r="L220" t="n">
+        <v>913</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1506.88</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>460</v>
+      </c>
+      <c r="G221" t="n">
+        <v>740.071428571429</v>
+      </c>
+      <c r="H221" t="n">
+        <v>3900</v>
+      </c>
+      <c r="I221" t="n">
+        <v>2093.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>44.6428571428571</v>
+      </c>
+      <c r="K221" t="n">
+        <v>75</v>
+      </c>
+      <c r="L221" t="n">
+        <v>913</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1400</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1506.88</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>94.17</v>
+      </c>
+      <c r="G222" t="n">
+        <v>94.06399999999999</v>
+      </c>
+      <c r="H222" t="n">
+        <v>100</v>
+      </c>
+      <c r="I222" t="n">
+        <v>100</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>94.17</v>
+      </c>
+      <c r="M222" t="n">
+        <v>98.25</v>
+      </c>
+      <c r="N222" t="n">
+        <v>100</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.00551</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.0063730942132644</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.022835415485719</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.01514</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.00397</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.01096</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.01441</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.00551</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.0063730942132644</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.022835415485719</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.01514</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.00397</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.01096</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.01441</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.214148679586801</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.39884</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.45228</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.214148679586801</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.4695</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.008880000000000001</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.39884</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.45228</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G227" t="n">
+        <v>4.483</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M227" t="n">
+        <v>4.71775</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.229044642857143</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.4935</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.40694</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.48706</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.2215</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.229044642857143</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.4935</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.40694</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.48706</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.525357142857143</v>
+      </c>
+      <c r="H230" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.7204</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.525357142857143</v>
+      </c>
+      <c r="H231" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.838</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.6198</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.7204</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.0355535714285714</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.04098</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.04412</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Manakau at S.H.1 Bridge</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.0355535714285714</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.04098</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.04412</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1786783</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5489486</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Horowhenua District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Waiopehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Waikawa</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>West_9b</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
+++ b/state_results/Rivers/ManakauatSH1Bridge_7eca31fe38.xlsx
@@ -570,13 +570,13 @@
         <v>1.15</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62831703965469</v>
+        <v>1.58669235119462</v>
       </c>
       <c r="H2" t="n">
-        <v>7.86892661386078</v>
+        <v>7.6667716801401</v>
       </c>
       <c r="I2" t="n">
-        <v>5.16223</v>
+        <v>4.688</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -587,7 +587,7 @@
         <v>2.218</v>
       </c>
       <c r="N2" t="n">
-        <v>3.31065</v>
+        <v>3.114</v>
       </c>
       <c r="O2" t="n">
         <v>1786783</v>
@@ -1939,13 +1939,13 @@
         <v>1.4</v>
       </c>
       <c r="G19" t="n">
-        <v>1.62513144028381</v>
+        <v>1.58742212365936</v>
       </c>
       <c r="H19" t="n">
         <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.99471</v>
+        <v>3.56</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1953,10 +1953,10 @@
         <v>1.8</v>
       </c>
       <c r="M19" t="n">
-        <v>2.718</v>
+        <v>2.42348</v>
       </c>
       <c r="N19" t="n">
-        <v>3.37389</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
         <v>1786783</v>
@@ -3308,13 +3308,13 @@
         <v>1.6</v>
       </c>
       <c r="G36" t="n">
-        <v>2.00780755027548</v>
+        <v>1.98497515864717</v>
       </c>
       <c r="H36" t="n">
-        <v>6.60357164244318</v>
+        <v>6.57018029422329</v>
       </c>
       <c r="I36" t="n">
-        <v>5.43662</v>
+        <v>5.78843</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -3322,10 +3322,10 @@
         <v>1.95</v>
       </c>
       <c r="M36" t="n">
-        <v>3.302</v>
+        <v>3.2</v>
       </c>
       <c r="N36" t="n">
-        <v>4.67336</v>
+        <v>4.896</v>
       </c>
       <c r="O36" t="n">
         <v>1786783</v>
@@ -4677,13 +4677,13 @@
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>2.48168510129589</v>
+        <v>2.45885270966758</v>
       </c>
       <c r="H53" t="n">
         <v>7.4</v>
       </c>
       <c r="I53" t="n">
-        <v>6.62839</v>
+        <v>6.59667</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4694,7 +4694,7 @@
         <v>4.117</v>
       </c>
       <c r="N53" t="n">
-        <v>5.82483</v>
+        <v>5.80753</v>
       </c>
       <c r="O53" t="n">
         <v>1786783</v>
@@ -6123,13 +6123,13 @@
         <v>1.9</v>
       </c>
       <c r="G71" t="n">
-        <v>2.51125139926997</v>
+        <v>2.48887565547423</v>
       </c>
       <c r="H71" t="n">
         <v>7.4</v>
       </c>
       <c r="I71" t="n">
-        <v>6.60357</v>
+        <v>6.57018</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -6140,7 +6140,7 @@
         <v>4.1</v>
       </c>
       <c r="N71" t="n">
-        <v>5.76623</v>
+        <v>5.80465</v>
       </c>
       <c r="O71" t="n">
         <v>1786783</v>
@@ -7723,13 +7723,13 @@
         <v>1.7</v>
       </c>
       <c r="G91" t="n">
-        <v>2.41728044493324</v>
+        <v>2.4263718234825</v>
       </c>
       <c r="H91" t="n">
         <v>7.4</v>
       </c>
       <c r="I91" t="n">
-        <v>6.67804</v>
+        <v>6.64965</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7740,7 +7740,7 @@
         <v>4.151</v>
       </c>
       <c r="N91" t="n">
-        <v>5.94202</v>
+        <v>5.8133</v>
       </c>
       <c r="O91" t="n">
         <v>1786783</v>
@@ -9323,13 +9323,13 @@
         <v>1.58</v>
       </c>
       <c r="G111" t="n">
-        <v>2.13174853003962</v>
+        <v>2.14083990858889</v>
       </c>
       <c r="H111" t="n">
         <v>7.4</v>
       </c>
       <c r="I111" t="n">
-        <v>6.67804</v>
+        <v>6.64965</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -9340,7 +9340,7 @@
         <v>4.1</v>
       </c>
       <c r="N111" t="n">
-        <v>5.94202</v>
+        <v>5.8133</v>
       </c>
       <c r="O111" t="n">
         <v>1786783</v>
